--- a/Programming/python_automation/attachments/example.xlsx
+++ b/Programming/python_automation/attachments/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\admin\python_automate\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\admin\exercise_book\Programming\python_automation\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD848BF-BF72-4746-ADC2-0585B4D480B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4813FC7-D3A2-4697-AB57-CA411F0FC748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,9 +157,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,26 +192,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,26 +227,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
